--- a/Data/import.xlsx
+++ b/Data/import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzelegesari/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzelegesari/Documents/GitHub/emu660-spring2025-Selenzel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22F15C49-F901-BB46-9103-FF32984FE5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401A9E27-1482-9149-8B4E-06F4F289B3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{03230583-9532-394C-B98B-CAD7B89A1613}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{03230583-9532-394C-B98B-CAD7B89A1613}"/>
   </bookViews>
   <sheets>
     <sheet name="ithalat" sheetId="1" r:id="rId1"/>
@@ -331,7 +331,7 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Import ($)</t>
+    <t>Import</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
   <dimension ref="A1:C665"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/import.xlsx
+++ b/Data/import.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzelegesari/Documents/GitHub/emu660-spring2025-Selenzel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401A9E27-1482-9149-8B4E-06F4F289B3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FAAF79-5D3B-384E-AE19-D115248A5907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{03230583-9532-394C-B98B-CAD7B89A1613}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{03230583-9532-394C-B98B-CAD7B89A1613}"/>
   </bookViews>
   <sheets>
     <sheet name="ithalat" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ithalat!$A$1:$C$665</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ithalat!$A$1:$C$663</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="93">
   <si>
     <t>2017</t>
   </si>
@@ -305,9 +305,6 @@
   </si>
   <si>
     <t>2018</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>2019</t>
@@ -729,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD6110B-FCB7-DE49-887F-BCC6AE31C17D}">
-  <dimension ref="A1:C665"/>
+  <dimension ref="A1:C663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E671" sqref="E671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -744,13 +741,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1671,7 +1668,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" s="2">
         <v>4170810.5559999999</v>
@@ -1682,7 +1679,7 @@
         <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C86" s="2">
         <v>54859.887000000002</v>
@@ -1693,7 +1690,7 @@
         <v>81</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87" s="2">
         <v>107550.87499999999</v>
@@ -1704,7 +1701,7 @@
         <v>80</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C88" s="2">
         <v>135385.01100000003</v>
@@ -1715,7 +1712,7 @@
         <v>79</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C89" s="2">
         <v>63738.030000000006</v>
@@ -1726,7 +1723,7 @@
         <v>78</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C90" s="2">
         <v>17262638.411999997</v>
@@ -1737,7 +1734,7 @@
         <v>77</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91" s="2">
         <v>2247083.0159999998</v>
@@ -1748,7 +1745,7 @@
         <v>76</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2">
         <v>23070.328000000001</v>
@@ -1759,7 +1756,7 @@
         <v>75</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C93" s="2">
         <v>638392.43599999987</v>
@@ -1770,7 +1767,7 @@
         <v>74</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2">
         <v>724977.82299999997</v>
@@ -1781,7 +1778,7 @@
         <v>73</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C95" s="2">
         <v>104031.54599999999</v>
@@ -1792,7 +1789,7 @@
         <v>72</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2">
         <v>4164.107</v>
@@ -1803,7 +1800,7 @@
         <v>71</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2">
         <v>2557.4199999999996</v>
@@ -1814,7 +1811,7 @@
         <v>70</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2">
         <v>178608.71799999999</v>
@@ -1825,7 +1822,7 @@
         <v>69</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2">
         <v>72940.612999999998</v>
@@ -1836,7 +1833,7 @@
         <v>68</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C100" s="2">
         <v>10624837.660000002</v>
@@ -1847,7 +1844,7 @@
         <v>67</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2">
         <v>164811.261</v>
@@ -1858,7 +1855,7 @@
         <v>66</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C102" s="2">
         <v>185451.58199999999</v>
@@ -1869,7 +1866,7 @@
         <v>65</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C103" s="2">
         <v>4005306.5320000001</v>
@@ -1880,7 +1877,7 @@
         <v>64</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2">
         <v>2224720.8569999998</v>
@@ -1891,7 +1888,7 @@
         <v>63</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C105" s="2">
         <v>151089.12000000002</v>
@@ -1902,7 +1899,7 @@
         <v>62</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C106" s="2">
         <v>152298.08700000003</v>
@@ -1913,7 +1910,7 @@
         <v>61</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C107" s="2">
         <v>71595.581000000006</v>
@@ -1924,7 +1921,7 @@
         <v>60</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C108" s="2">
         <v>7129.4570000000003</v>
@@ -1935,7 +1932,7 @@
         <v>59</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C109" s="2">
         <v>63561.982000000004</v>
@@ -1946,7 +1943,7 @@
         <v>58</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C110" s="2">
         <v>1150549.9520000003</v>
@@ -1957,7 +1954,7 @@
         <v>57</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C111" s="2">
         <v>7085508.387000001</v>
@@ -1968,7 +1965,7 @@
         <v>56</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C112" s="2">
         <v>22553.582000000002</v>
@@ -1979,7 +1976,7 @@
         <v>55</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C113" s="2">
         <v>1793.4269999999999</v>
@@ -1990,7 +1987,7 @@
         <v>54</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C114" s="2">
         <v>109903.58700000003</v>
@@ -2001,7 +1998,7 @@
         <v>53</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C115" s="2">
         <v>5335813.0200000005</v>
@@ -2012,7 +2009,7 @@
         <v>52</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C116" s="2">
         <v>67129.327999999994</v>
@@ -2023,7 +2020,7 @@
         <v>51</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C117" s="2">
         <v>7819934.7050000001</v>
@@ -2034,7 +2031,7 @@
         <v>50</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C118" s="2">
         <v>203489152.55199999</v>
@@ -2045,7 +2042,7 @@
         <v>49</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C119" s="2">
         <v>12935889.704</v>
@@ -2056,7 +2053,7 @@
         <v>48</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C120" s="2">
         <v>2291.2569999999996</v>
@@ -2067,7 +2064,7 @@
         <v>47</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C121" s="2">
         <v>152557.76499999998</v>
@@ -2078,7 +2075,7 @@
         <v>46</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C122" s="2">
         <v>1603531.7559999998</v>
@@ -2089,7 +2086,7 @@
         <v>45</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C123" s="2">
         <v>187605.77199999997</v>
@@ -2100,7 +2097,7 @@
         <v>44</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C124" s="2">
         <v>410665.592</v>
@@ -2111,7 +2108,7 @@
         <v>43</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C125" s="2">
         <v>18061413.612</v>
@@ -2122,7 +2119,7 @@
         <v>42</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C126" s="2">
         <v>1620848.55</v>
@@ -2133,7 +2130,7 @@
         <v>41</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C127" s="2">
         <v>149527.91800000001</v>
@@ -2144,7 +2141,7 @@
         <v>40</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C128" s="2">
         <v>156603.62099999998</v>
@@ -2155,7 +2152,7 @@
         <v>39</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C129" s="2">
         <v>3502579.1629999997</v>
@@ -2166,7 +2163,7 @@
         <v>38</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C130" s="2">
         <v>1143343.5840000003</v>
@@ -2177,7 +2174,7 @@
         <v>37</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C131" s="2">
         <v>247351.84100000004</v>
@@ -2188,7 +2185,7 @@
         <v>36</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C132" s="2">
         <v>465503.21199999994</v>
@@ -2199,7 +2196,7 @@
         <v>35</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C133" s="2">
         <v>239330.42800000001</v>
@@ -2210,7 +2207,7 @@
         <v>34</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C134" s="2">
         <v>62770.890999999996</v>
@@ -2221,7 +2218,7 @@
         <v>33</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C135" s="2">
         <v>58435.567999999999</v>
@@ -2232,7 +2229,7 @@
         <v>32</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C136" s="2">
         <v>91201.738000000012</v>
@@ -2243,7 +2240,7 @@
         <v>31</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C137" s="2">
         <v>14326.208000000002</v>
@@ -2254,7 +2251,7 @@
         <v>30</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C138" s="2">
         <v>3950369.8650000002</v>
@@ -2265,7 +2262,7 @@
         <v>29</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C139" s="2">
         <v>1195152.1520000002</v>
@@ -2276,7 +2273,7 @@
         <v>28</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C140" s="2">
         <v>34853.841000000008</v>
@@ -2287,7 +2284,7 @@
         <v>27</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C141" s="2">
         <v>13109.238000000001</v>
@@ -2298,7 +2295,7 @@
         <v>26</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C142" s="2">
         <v>89374.827000000005</v>
@@ -2309,7 +2306,7 @@
         <v>25</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C143" s="2">
         <v>3047694.4139999999</v>
@@ -2320,7 +2317,7 @@
         <v>24</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C144" s="2">
         <v>31558.138000000003</v>
@@ -2331,7 +2328,7 @@
         <v>23</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C145" s="2">
         <v>150064.932</v>
@@ -2342,7 +2339,7 @@
         <v>22</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C146" s="2">
         <v>213.453</v>
@@ -2353,7 +2350,7 @@
         <v>21</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C147" s="2">
         <v>345339.76900000003</v>
@@ -2364,7 +2361,7 @@
         <v>20</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C148" s="2">
         <v>238987.37200000003</v>
@@ -2375,7 +2372,7 @@
         <v>19</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C149" s="2">
         <v>26774.789999999997</v>
@@ -2386,7 +2383,7 @@
         <v>18</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C150" s="2">
         <v>51470.25</v>
@@ -2397,7 +2394,7 @@
         <v>17</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C151" s="2">
         <v>1605065.0649999997</v>
@@ -2408,7 +2405,7 @@
         <v>16</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C152" s="2">
         <v>107606.28100000002</v>
@@ -2419,7 +2416,7 @@
         <v>15</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C153" s="2">
         <v>256.02199999999999</v>
@@ -2430,7 +2427,7 @@
         <v>14</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C154" s="2">
         <v>88300.823999999993</v>
@@ -2441,7 +2438,7 @@
         <v>13</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C155" s="2">
         <v>30790.915000000005</v>
@@ -2452,7 +2449,7 @@
         <v>12</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C156" s="2">
         <v>1269225.156</v>
@@ -2463,7 +2460,7 @@
         <v>11</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C157" s="2">
         <v>82274.748000000007</v>
@@ -2474,7 +2471,7 @@
         <v>10</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C158" s="2">
         <v>8644.7930000000015</v>
@@ -2485,7 +2482,7 @@
         <v>9</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C159" s="2">
         <v>274.54899999999998</v>
@@ -2496,7 +2493,7 @@
         <v>8</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C160" s="2">
         <v>19925.266</v>
@@ -2507,7 +2504,7 @@
         <v>7</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C161" s="2">
         <v>905737.397</v>
@@ -2518,7 +2515,7 @@
         <v>6</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C162" s="2">
         <v>1019443.1860000001</v>
@@ -2529,7 +2526,7 @@
         <v>5</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C163" s="2">
         <v>63886.105999999992</v>
@@ -2540,7 +2537,7 @@
         <v>4</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C164" s="2">
         <v>596119.22499999998</v>
@@ -2551,7 +2548,7 @@
         <v>3</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C165" s="2">
         <v>298664.98200000002</v>
@@ -2562,7 +2559,7 @@
         <v>2</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C166" s="2">
         <v>37063313.024000004</v>
@@ -2573,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C167" s="2">
         <v>2694.5709999999999</v>
@@ -2584,7 +2581,7 @@
         <v>83</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C168" s="2">
         <v>4883209.1030000001</v>
@@ -2595,7 +2592,7 @@
         <v>82</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C169" s="2">
         <v>82741.153000000006</v>
@@ -2606,7 +2603,7 @@
         <v>81</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C170" s="2">
         <v>66476.752999999997</v>
@@ -2617,7 +2614,7 @@
         <v>80</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C171" s="2">
         <v>116905.204</v>
@@ -2628,7 +2625,7 @@
         <v>79</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C172" s="2">
         <v>45684.034999999996</v>
@@ -2639,7 +2636,7 @@
         <v>78</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C173" s="2">
         <v>14496009.842</v>
@@ -2650,7 +2647,7 @@
         <v>77</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C174" s="2">
         <v>1926558.9399999997</v>
@@ -2661,7 +2658,7 @@
         <v>76</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C175" s="2">
         <v>38109.194000000003</v>
@@ -2672,7 +2669,7 @@
         <v>75</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C176" s="2">
         <v>477529.44800000009</v>
@@ -2683,7 +2680,7 @@
         <v>74</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C177" s="2">
         <v>607347.03499999992</v>
@@ -2694,7 +2691,7 @@
         <v>73</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C178" s="2">
         <v>96260.101999999984</v>
@@ -2705,7 +2702,7 @@
         <v>72</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C179" s="2">
         <v>2418.7529999999992</v>
@@ -2716,7 +2713,7 @@
         <v>71</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C180" s="2">
         <v>1385.1890000000001</v>
@@ -2727,7 +2724,7 @@
         <v>70</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C181" s="2">
         <v>204139.87499999997</v>
@@ -2738,7 +2735,7 @@
         <v>69</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C182" s="2">
         <v>61431.836999999992</v>
@@ -2749,7 +2746,7 @@
         <v>68</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C183" s="2">
         <v>10184060.813000001</v>
@@ -2760,7 +2757,7 @@
         <v>67</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C184" s="2">
         <v>155981.30700000003</v>
@@ -2771,7 +2768,7 @@
         <v>66</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C185" s="2">
         <v>227537.87299999999</v>
@@ -2782,7 +2779,7 @@
         <v>65</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C186" s="2">
         <v>3842842.4149999996</v>
@@ -2793,7 +2790,7 @@
         <v>64</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C187" s="2">
         <v>2658057.7910000002</v>
@@ -2804,7 +2801,7 @@
         <v>63</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C188" s="2">
         <v>129453.933</v>
@@ -2815,7 +2812,7 @@
         <v>62</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C189" s="2">
         <v>87128.414000000019</v>
@@ -2826,7 +2823,7 @@
         <v>61</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C190" s="2">
         <v>46317.164000000004</v>
@@ -2837,7 +2834,7 @@
         <v>60</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C191" s="2">
         <v>6829.5149999999994</v>
@@ -2848,7 +2845,7 @@
         <v>59</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C192" s="2">
         <v>57221.060999999994</v>
@@ -2859,7 +2856,7 @@
         <v>58</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C193" s="2">
         <v>1059128.956</v>
@@ -2870,7 +2867,7 @@
         <v>57</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C194" s="2">
         <v>8497811.5350000001</v>
@@ -2881,7 +2878,7 @@
         <v>56</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C195" s="2">
         <v>20639.422999999999</v>
@@ -2892,7 +2889,7 @@
         <v>55</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C196" s="2">
         <v>2174.732</v>
@@ -2903,7 +2900,7 @@
         <v>54</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C197" s="2">
         <v>89840.383000000016</v>
@@ -2914,7 +2911,7 @@
         <v>53</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C198" s="2">
         <v>7662938.7029999997</v>
@@ -2925,7 +2922,7 @@
         <v>52</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C199" s="2">
         <v>69491.322</v>
@@ -2936,7 +2933,7 @@
         <v>51</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C200" s="2">
         <v>6855321.7860000003</v>
@@ -2947,7 +2944,7 @@
         <v>50</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C201" s="2">
         <v>178524528.36700001</v>
@@ -2958,7 +2955,7 @@
         <v>49</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C202" s="2">
         <v>13576366.683999998</v>
@@ -2969,7 +2966,7 @@
         <v>48</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C203" s="2">
         <v>2163.8339999999998</v>
@@ -2980,7 +2977,7 @@
         <v>47</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C204" s="2">
         <v>241754.56799999997</v>
@@ -2991,7 +2988,7 @@
         <v>46</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C205" s="2">
         <v>1844177.152</v>
@@ -3002,7 +2999,7 @@
         <v>45</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C206" s="2">
         <v>176636.77100000001</v>
@@ -3013,7 +3010,7 @@
         <v>44</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C207" s="2">
         <v>452339.44</v>
@@ -3024,7 +3021,7 @@
         <v>43</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C208" s="2">
         <v>18379503.916999999</v>
@@ -3035,7 +3032,7 @@
         <v>42</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C209" s="2">
         <v>1431752.6090000002</v>
@@ -3046,7 +3043,7 @@
         <v>41</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C210" s="2">
         <v>142129.86900000001</v>
@@ -3057,7 +3054,7 @@
         <v>40</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C211" s="2">
         <v>171166.26500000001</v>
@@ -3068,7 +3065,7 @@
         <v>39</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C212" s="2">
         <v>3168684.2200000007</v>
@@ -3079,7 +3076,7 @@
         <v>38</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C213" s="2">
         <v>1731378.3499999999</v>
@@ -3090,7 +3087,7 @@
         <v>37</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C214" s="2">
         <v>469061.57400000002</v>
@@ -3101,7 +3098,7 @@
         <v>36</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C215" s="2">
         <v>393576.82900000003</v>
@@ -3112,7 +3109,7 @@
         <v>35</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C216" s="2">
         <v>259206.853</v>
@@ -3123,7 +3120,7 @@
         <v>34</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C217" s="2">
         <v>33047.455999999998</v>
@@ -3134,7 +3131,7 @@
         <v>33</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C218" s="2">
         <v>46201.034999999996</v>
@@ -3145,7 +3142,7 @@
         <v>32</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C219" s="2">
         <v>66141.872000000003</v>
@@ -3156,7 +3153,7 @@
         <v>31</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C220" s="2">
         <v>86674.392000000022</v>
@@ -3167,7 +3164,7 @@
         <v>30</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C221" s="2">
         <v>3549890.6170000006</v>
@@ -3178,7 +3175,7 @@
         <v>29</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C222" s="2">
         <v>1137172.4720000001</v>
@@ -3189,7 +3186,7 @@
         <v>28</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C223" s="2">
         <v>35601.330000000009</v>
@@ -3200,7 +3197,7 @@
         <v>27</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C224" s="2">
         <v>10075.871999999999</v>
@@ -3211,7 +3208,7 @@
         <v>26</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C225" s="2">
         <v>41994.394</v>
@@ -3222,7 +3219,7 @@
         <v>25</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C226" s="2">
         <v>3221064.858</v>
@@ -3233,7 +3230,7 @@
         <v>24</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C227" s="2">
         <v>23754.842000000004</v>
@@ -3244,7 +3241,7 @@
         <v>23</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C228" s="2">
         <v>222630.95400000006</v>
@@ -3255,7 +3252,7 @@
         <v>22</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C229" s="2">
         <v>307.17699999999996</v>
@@ -3266,7 +3263,7 @@
         <v>21</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C230" s="2">
         <v>336152.61299999995</v>
@@ -3277,7 +3274,7 @@
         <v>20</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C231" s="2">
         <v>272199.54300000001</v>
@@ -3288,7 +3285,7 @@
         <v>19</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C232" s="2">
         <v>16664.934000000005</v>
@@ -3299,7 +3296,7 @@
         <v>18</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C233" s="2">
         <v>39329.485000000001</v>
@@ -3310,7 +3307,7 @@
         <v>17</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C234" s="2">
         <v>2055004.9229999997</v>
@@ -3321,7 +3318,7 @@
         <v>16</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C235" s="2">
         <v>81675.763000000006</v>
@@ -3332,7 +3329,7 @@
         <v>15</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C236" s="2">
         <v>100.89699999999999</v>
@@ -3343,7 +3340,7 @@
         <v>14</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C237" s="2">
         <v>118495.327</v>
@@ -3354,7 +3351,7 @@
         <v>13</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C238" s="2">
         <v>25409.958999999999</v>
@@ -3365,7 +3362,7 @@
         <v>12</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C239" s="2">
         <v>216661.19999999998</v>
@@ -3376,7 +3373,7 @@
         <v>11</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C240" s="2">
         <v>94030.184000000008</v>
@@ -3387,7 +3384,7 @@
         <v>10</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C241" s="2">
         <v>7874.3899999999994</v>
@@ -3398,7 +3395,7 @@
         <v>9</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C242" s="2">
         <v>24.135000000000002</v>
@@ -3409,7 +3406,7 @@
         <v>8</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C243" s="2">
         <v>18277.462999999996</v>
@@ -3420,7 +3417,7 @@
         <v>7</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C244" s="2">
         <v>1010157.5870000001</v>
@@ -3431,7 +3428,7 @@
         <v>6</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C245" s="2">
         <v>1253797.0820000002</v>
@@ -3442,7 +3439,7 @@
         <v>5</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C246" s="2">
         <v>54834.81</v>
@@ -3453,7 +3450,7 @@
         <v>4</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C247" s="2">
         <v>911014.11899999995</v>
@@ -3464,7 +3461,7 @@
         <v>3</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C248" s="2">
         <v>280518.24399999995</v>
@@ -3475,7 +3472,7 @@
         <v>2</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C249" s="2">
         <v>62716586.886999995</v>
@@ -3486,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C250" s="2">
         <v>3797.0559999999996</v>
@@ -3497,7 +3494,7 @@
         <v>83</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C251" s="2">
         <v>3545958.7009999999</v>
@@ -3508,7 +3505,7 @@
         <v>82</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C252" s="2">
         <v>66526.834999999992</v>
@@ -3519,7 +3516,7 @@
         <v>81</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C253" s="2">
         <v>50878.883999999991</v>
@@ -3530,7 +3527,7 @@
         <v>80</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C254" s="2">
         <v>86144.482000000018</v>
@@ -3541,7 +3538,7 @@
         <v>79</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C255" s="2">
         <v>45502.498999999996</v>
@@ -3552,7 +3549,7 @@
         <v>78</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C256" s="2">
         <v>14601816.157</v>
@@ -3563,7 +3560,7 @@
         <v>77</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C257" s="2">
         <v>1549719.548</v>
@@ -3574,7 +3571,7 @@
         <v>76</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C258" s="2">
         <v>31668.927000000003</v>
@@ -3585,7 +3582,7 @@
         <v>75</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C259" s="2">
         <v>325338.89299999998</v>
@@ -3596,7 +3593,7 @@
         <v>74</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C260" s="2">
         <v>511211.70699999994</v>
@@ -3607,7 +3604,7 @@
         <v>73</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C261" s="2">
         <v>87687.107999999978</v>
@@ -3618,7 +3615,7 @@
         <v>72</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C262" s="2">
         <v>875.98499999999979</v>
@@ -3629,7 +3626,7 @@
         <v>71</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C263" s="2">
         <v>1664.3389999999999</v>
@@ -3640,7 +3637,7 @@
         <v>70</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C264" s="2">
         <v>177059.74999999997</v>
@@ -3651,7 +3648,7 @@
         <v>69</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C265" s="2">
         <v>37523.159999999996</v>
@@ -3662,7 +3659,7 @@
         <v>68</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C266" s="2">
         <v>8534857.9940000009</v>
@@ -3673,7 +3670,7 @@
         <v>67</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C267" s="2">
         <v>111485.719</v>
@@ -3684,7 +3681,7 @@
         <v>66</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C268" s="2">
         <v>177899.63100000002</v>
@@ -3695,7 +3692,7 @@
         <v>65</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C269" s="2">
         <v>887311.8600000001</v>
@@ -3706,7 +3703,7 @@
         <v>64</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C270" s="2">
         <v>2071772.4379999998</v>
@@ -3717,7 +3714,7 @@
         <v>63</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C271" s="2">
         <v>101271.97</v>
@@ -3728,7 +3725,7 @@
         <v>62</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C272" s="2">
         <v>116582.01699999999</v>
@@ -3739,7 +3736,7 @@
         <v>61</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C273" s="2">
         <v>21283.253999999997</v>
@@ -3750,7 +3747,7 @@
         <v>60</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C274" s="2">
         <v>2080.4499999999998</v>
@@ -3761,7 +3758,7 @@
         <v>59</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C275" s="2">
         <v>110287.14199999999</v>
@@ -3772,7 +3769,7 @@
         <v>58</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C276" s="2">
         <v>979057.16399999987</v>
@@ -3783,7 +3780,7 @@
         <v>57</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C277" s="2">
         <v>7383897.8029999994</v>
@@ -3794,7 +3791,7 @@
         <v>56</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C278" s="2">
         <v>20047.718000000001</v>
@@ -3805,7 +3802,7 @@
         <v>55</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C279" s="2">
         <v>1011.995</v>
@@ -3816,7 +3813,7 @@
         <v>54</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C280" s="2">
         <v>72569.886000000013</v>
@@ -3827,7 +3824,7 @@
         <v>53</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C281" s="2">
         <v>6640766.1789999995</v>
@@ -3838,7 +3835,7 @@
         <v>52</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C282" s="2">
         <v>52236.18</v>
@@ -3849,7 +3846,7 @@
         <v>51</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C283" s="2">
         <v>3966542.2420000001</v>
@@ -3860,7 +3857,7 @@
         <v>50</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C284" s="2">
         <v>138122531.009</v>
@@ -3871,7 +3868,7 @@
         <v>49</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C285" s="2">
         <v>10956662.949999999</v>
@@ -3882,7 +3879,7 @@
         <v>48</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C286" s="2">
         <v>1163.3090000000002</v>
@@ -3893,7 +3890,7 @@
         <v>47</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C287" s="2">
         <v>165706.44200000001</v>
@@ -3904,7 +3901,7 @@
         <v>46</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C288" s="2">
         <v>1774327.6710000001</v>
@@ -3915,7 +3912,7 @@
         <v>45</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C289" s="2">
         <v>200292.98899999997</v>
@@ -3926,7 +3923,7 @@
         <v>44</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C290" s="2">
         <v>358309.02499999997</v>
@@ -3937,7 +3934,7 @@
         <v>43</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C291" s="2">
         <v>14838590.986000001</v>
@@ -3948,7 +3945,7 @@
         <v>42</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C292" s="2">
         <v>1186590.9659999998</v>
@@ -3959,7 +3956,7 @@
         <v>41</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C293" s="2">
         <v>135797.26500000001</v>
@@ -3970,7 +3967,7 @@
         <v>40</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C294" s="2">
         <v>105667.03700000001</v>
@@ -3981,7 +3978,7 @@
         <v>39</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C295" s="2">
         <v>3308810.804</v>
@@ -3992,7 +3989,7 @@
         <v>38</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C296" s="2">
         <v>1260971.7060000002</v>
@@ -4003,7 +4000,7 @@
         <v>37</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C297" s="2">
         <v>353867.78899999999</v>
@@ -4014,7 +4011,7 @@
         <v>36</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C298" s="2">
         <v>297779.79500000004</v>
@@ -4025,7 +4022,7 @@
         <v>35</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C299" s="2">
         <v>83544.668999999994</v>
@@ -4036,7 +4033,7 @@
         <v>34</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C300" s="2">
         <v>28428.263999999999</v>
@@ -4047,7 +4044,7 @@
         <v>33</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C301" s="2">
         <v>58514.784999999996</v>
@@ -4058,7 +4055,7 @@
         <v>32</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C302" s="2">
         <v>36471.830999999998</v>
@@ -4069,7 +4066,7 @@
         <v>31</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C303" s="2">
         <v>48845.085999999996</v>
@@ -4080,7 +4077,7 @@
         <v>30</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C304" s="2">
         <v>3255468.3620000002</v>
@@ -4091,7 +4088,7 @@
         <v>29</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C305" s="2">
         <v>1147773.7560000001</v>
@@ -4102,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C306" s="2">
         <v>30560.834000000003</v>
@@ -4113,7 +4110,7 @@
         <v>27</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C307" s="2">
         <v>8296.2390000000014</v>
@@ -4124,7 +4121,7 @@
         <v>26</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C308" s="2">
         <v>53726.532999999996</v>
@@ -4135,7 +4132,7 @@
         <v>25</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C309" s="2">
         <v>2502562.0159999998</v>
@@ -4146,7 +4143,7 @@
         <v>24</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C310" s="2">
         <v>14010.953</v>
@@ -4157,7 +4154,7 @@
         <v>23</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C311" s="2">
         <v>122059.93300000002</v>
@@ -4168,7 +4165,7 @@
         <v>22</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C312" s="2">
         <v>1043.2359999999999</v>
@@ -4179,7 +4176,7 @@
         <v>21</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C313" s="2">
         <v>348184.78700000001</v>
@@ -4190,7 +4187,7 @@
         <v>20</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C314" s="2">
         <v>214607.86200000002</v>
@@ -4201,7 +4198,7 @@
         <v>19</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C315" s="2">
         <v>21814.274000000001</v>
@@ -4212,7 +4209,7 @@
         <v>18</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C316" s="2">
         <v>14311.091000000002</v>
@@ -4223,7 +4220,7 @@
         <v>17</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C317" s="2">
         <v>1893247.4380000001</v>
@@ -4234,7 +4231,7 @@
         <v>16</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C318" s="2">
         <v>59322.600999999995</v>
@@ -4245,7 +4242,7 @@
         <v>15</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C319" s="2">
         <v>72.604000000000013</v>
@@ -4256,7 +4253,7 @@
         <v>14</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C320" s="2">
         <v>82462.729000000007</v>
@@ -4267,7 +4264,7 @@
         <v>13</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C321" s="2">
         <v>18920.581999999999</v>
@@ -4278,7 +4275,7 @@
         <v>12</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C322" s="2">
         <v>29513.101999999999</v>
@@ -4289,7 +4286,7 @@
         <v>11</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C323" s="2">
         <v>65231.237999999998</v>
@@ -4300,7 +4297,7 @@
         <v>10</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C324" s="2">
         <v>5966.4490000000005</v>
@@ -4311,7 +4308,7 @@
         <v>9</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C325" s="2">
         <v>44.658999999999992</v>
@@ -4322,7 +4319,7 @@
         <v>8</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C326" s="2">
         <v>17446.964</v>
@@ -4333,7 +4330,7 @@
         <v>7</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C327" s="2">
         <v>1078005.851</v>
@@ -4344,7 +4341,7 @@
         <v>6</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C328" s="2">
         <v>1205785.294</v>
@@ -4355,7 +4352,7 @@
         <v>5</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C329" s="2">
         <v>63381.858999999997</v>
@@ -4366,7 +4363,7 @@
         <v>4</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C330" s="2">
         <v>795650.63400000008</v>
@@ -4377,7 +4374,7 @@
         <v>3</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C331" s="2">
         <v>218288.61099999998</v>
@@ -4388,7 +4385,7 @@
         <v>2</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C332" s="2">
         <v>32458952.115000002</v>
@@ -4399,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C333" s="2">
         <v>5427.4309999999996</v>
@@ -4410,7 +4407,7 @@
         <v>83</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C334" s="2">
         <v>2127117.6510000001</v>
@@ -4421,7 +4418,7 @@
         <v>82</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C335" s="2">
         <v>67091.358000000007</v>
@@ -4432,7 +4429,7 @@
         <v>81</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C336" s="2">
         <v>83623.907999999996</v>
@@ -4443,7 +4440,7 @@
         <v>80</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C337" s="2">
         <v>68366.875</v>
@@ -4454,7 +4451,7 @@
         <v>79</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C338" s="2">
         <v>38515.038999999997</v>
@@ -4465,7 +4462,7 @@
         <v>78</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C339" s="2">
         <v>11457722.253</v>
@@ -4476,7 +4473,7 @@
         <v>77</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C340" s="2">
         <v>1155560.9820000001</v>
@@ -4487,7 +4484,7 @@
         <v>76</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C341" s="2">
         <v>17793.094000000001</v>
@@ -4498,7 +4495,7 @@
         <v>75</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C342" s="2">
         <v>205615.005</v>
@@ -4509,7 +4506,7 @@
         <v>74</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C343" s="2">
         <v>401904.6179999999</v>
@@ -4520,7 +4517,7 @@
         <v>73</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C344" s="2">
         <v>53889.258999999998</v>
@@ -4531,7 +4528,7 @@
         <v>72</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C345" s="2">
         <v>952.28599999999994</v>
@@ -4542,7 +4539,7 @@
         <v>71</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C346" s="2">
         <v>1333.2119999999998</v>
@@ -4553,7 +4550,7 @@
         <v>70</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C347" s="2">
         <v>164837.51300000001</v>
@@ -4564,7 +4561,7 @@
         <v>69</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C348" s="2">
         <v>24418.518</v>
@@ -4575,7 +4572,7 @@
         <v>68</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C349" s="2">
         <v>7606513.8150000013</v>
@@ -4586,7 +4583,7 @@
         <v>67</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C350" s="2">
         <v>86511.027999999991</v>
@@ -4597,7 +4594,7 @@
         <v>66</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C351" s="2">
         <v>133051.04800000001</v>
@@ -4608,7 +4605,7 @@
         <v>65</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C352" s="2">
         <v>2647202.4369999999</v>
@@ -4619,7 +4616,7 @@
         <v>64</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C353" s="2">
         <v>1459302.3910000001</v>
@@ -4630,7 +4627,7 @@
         <v>63</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C354" s="2">
         <v>104695.93700000001</v>
@@ -4641,7 +4638,7 @@
         <v>62</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C355" s="2">
         <v>108730.65900000003</v>
@@ -4652,7 +4649,7 @@
         <v>61</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C356" s="2">
         <v>26250.154999999995</v>
@@ -4663,7 +4660,7 @@
         <v>60</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C357" s="2">
         <v>1425.0750000000003</v>
@@ -4674,7 +4671,7 @@
         <v>59</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C358" s="2">
         <v>45022.152999999998</v>
@@ -4685,7 +4682,7 @@
         <v>58</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C359" s="2">
         <v>779236.52</v>
@@ -4696,7 +4693,7 @@
         <v>57</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C360" s="2">
         <v>5276937.5940000005</v>
@@ -4707,7 +4704,7 @@
         <v>56</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C361" s="2">
         <v>23568.306</v>
@@ -4718,7 +4715,7 @@
         <v>55</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C362" s="2">
         <v>2958.415</v>
@@ -4729,7 +4726,7 @@
         <v>54</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C363" s="2">
         <v>37134.504999999997</v>
@@ -4740,7 +4737,7 @@
         <v>53</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C364" s="2">
         <v>3733335.949</v>
@@ -4751,7 +4748,7 @@
         <v>52</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C365" s="2">
         <v>38083.712999999996</v>
@@ -4762,7 +4759,7 @@
         <v>51</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C366" s="2">
         <v>2841197.5930000003</v>
@@ -4773,7 +4770,7 @@
         <v>50</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C367" s="2">
         <v>126858301.905</v>
@@ -4784,7 +4781,7 @@
         <v>49</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C368" s="2">
         <v>8476250.5490000006</v>
@@ -4795,7 +4792,7 @@
         <v>48</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C369" s="2">
         <v>1045.7249999999999</v>
@@ -4806,7 +4803,7 @@
         <v>47</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C370" s="2">
         <v>149194.32200000001</v>
@@ -4817,7 +4814,7 @@
         <v>46</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C371" s="2">
         <v>1229580.9549999998</v>
@@ -4828,7 +4825,7 @@
         <v>45</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C372" s="2">
         <v>152196.39300000001</v>
@@ -4839,7 +4836,7 @@
         <v>44</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C373" s="2">
         <v>252087.73200000002</v>
@@ -4850,7 +4847,7 @@
         <v>43</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C374" s="2">
         <v>9560514.097000001</v>
@@ -4861,7 +4858,7 @@
         <v>42</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C375" s="2">
         <v>877587.07900000003</v>
@@ -4872,7 +4869,7 @@
         <v>41</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C376" s="2">
         <v>131122.24500000002</v>
@@ -4883,7 +4880,7 @@
         <v>40</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C377" s="2">
         <v>114403.87000000001</v>
@@ -4894,7 +4891,7 @@
         <v>39</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C378" s="2">
         <v>2432463.6150000002</v>
@@ -4905,7 +4902,7 @@
         <v>38</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C379" s="2">
         <v>982322.29899999988</v>
@@ -4916,7 +4913,7 @@
         <v>37</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C380" s="2">
         <v>327557.47200000001</v>
@@ -4927,7 +4924,7 @@
         <v>36</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C381" s="2">
         <v>281518.73000000004</v>
@@ -4938,7 +4935,7 @@
         <v>35</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C382" s="2">
         <v>111663.12000000002</v>
@@ -4949,7 +4946,7 @@
         <v>34</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C383" s="2">
         <v>23324.807999999997</v>
@@ -4960,7 +4957,7 @@
         <v>33</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C384" s="2">
         <v>60876.526000000005</v>
@@ -4971,7 +4968,7 @@
         <v>32</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C385" s="2">
         <v>22496.985999999997</v>
@@ -4982,7 +4979,7 @@
         <v>31</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C386" s="2">
         <v>34262.717000000004</v>
@@ -4993,7 +4990,7 @@
         <v>30</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C387" s="2">
         <v>2915926.2629999993</v>
@@ -5004,7 +5001,7 @@
         <v>29</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C388" s="2">
         <v>788045.59600000002</v>
@@ -5015,7 +5012,7 @@
         <v>28</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C389" s="2">
         <v>13886.534</v>
@@ -5026,7 +5023,7 @@
         <v>27</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C390" s="2">
         <v>9444.4330000000009</v>
@@ -5037,7 +5034,7 @@
         <v>26</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C391" s="2">
         <v>37476.163</v>
@@ -5048,7 +5045,7 @@
         <v>25</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C392" s="2">
         <v>1651159.892</v>
@@ -5059,7 +5056,7 @@
         <v>24</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C393" s="2">
         <v>12786.860999999999</v>
@@ -5070,7 +5067,7 @@
         <v>23</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C394" s="2">
         <v>98371.443000000014</v>
@@ -5081,7 +5078,7 @@
         <v>22</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C395" s="2">
         <v>135.13399999999999</v>
@@ -5092,7 +5089,7 @@
         <v>21</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C396" s="2">
         <v>231522.60600000003</v>
@@ -5103,7 +5100,7 @@
         <v>20</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C397" s="2">
         <v>180443.47200000004</v>
@@ -5114,7 +5111,7 @@
         <v>19</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C398" s="2">
         <v>18090.670999999998</v>
@@ -5125,7 +5122,7 @@
         <v>18</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C399" s="2">
         <v>20979.659</v>
@@ -5136,7 +5133,7 @@
         <v>17</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C400" s="2">
         <v>1174579.4369999999</v>
@@ -5147,7 +5144,7 @@
         <v>16</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C401" s="2">
         <v>39702.561000000002</v>
@@ -5158,7 +5155,7 @@
         <v>15</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C402" s="2">
         <v>72.350999999999999</v>
@@ -5169,7 +5166,7 @@
         <v>14</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C403" s="2">
         <v>102098.083</v>
@@ -5180,7 +5177,7 @@
         <v>13</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C404" s="2">
         <v>11072.038999999999</v>
@@ -5191,7 +5188,7 @@
         <v>12</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C405" s="2">
         <v>42536.891000000003</v>
@@ -5202,7 +5199,7 @@
         <v>11</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C406" s="2">
         <v>60877.170000000006</v>
@@ -5213,7 +5210,7 @@
         <v>10</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C407" s="2">
         <v>4204.0889999999999</v>
@@ -5224,7 +5221,7 @@
         <v>9</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C408" s="2">
         <v>157.73499999999999</v>
@@ -5235,7 +5232,7 @@
         <v>8</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C409" s="2">
         <v>13047.795999999998</v>
@@ -5246,7 +5243,7 @@
         <v>7</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C410" s="2">
         <v>649002.07699999993</v>
@@ -5257,7 +5254,7 @@
         <v>6</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C411" s="2">
         <v>615593.04700000002</v>
@@ -5268,7 +5265,7 @@
         <v>5</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C412" s="2">
         <v>50794.275999999998</v>
@@ -5279,7 +5276,7 @@
         <v>4</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C413" s="2">
         <v>494676.59500000003</v>
@@ -5290,7 +5287,7 @@
         <v>3</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C414" s="2">
         <v>134963.995</v>
@@ -5301,7 +5298,7 @@
         <v>2</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C415" s="2">
         <v>17239472.157999996</v>
@@ -5312,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C416" s="2">
         <v>7017.8020000000006</v>
@@ -5323,7 +5320,7 @@
         <v>83</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C417" s="2">
         <v>2114733.7910000002</v>
@@ -5334,7 +5331,7 @@
         <v>82</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C418" s="2">
         <v>42077.868000000002</v>
@@ -5345,7 +5342,7 @@
         <v>81</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C419" s="2">
         <v>76357.157000000007</v>
@@ -5356,7 +5353,7 @@
         <v>80</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C420" s="2">
         <v>96294.890999999989</v>
@@ -5367,7 +5364,7 @@
         <v>79</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C421" s="2">
         <v>39854.82499999999</v>
@@ -5378,7 +5375,7 @@
         <v>78</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C422" s="2">
         <v>11027600.249999996</v>
@@ -5389,7 +5386,7 @@
         <v>77</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C423" s="2">
         <v>1055288.1680000001</v>
@@ -5400,7 +5397,7 @@
         <v>76</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C424" s="2">
         <v>23673.190999999999</v>
@@ -5411,7 +5408,7 @@
         <v>75</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C425" s="2">
         <v>199303.334</v>
@@ -5422,7 +5419,7 @@
         <v>74</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C426" s="2">
         <v>412547.06800000009</v>
@@ -5433,7 +5430,7 @@
         <v>73</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C427" s="2">
         <v>52414.002</v>
@@ -5444,7 +5441,7 @@
         <v>72</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C428" s="2">
         <v>484.51099999999997</v>
@@ -5455,7 +5452,7 @@
         <v>71</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C429" s="2">
         <v>1718.4690000000001</v>
@@ -5466,7 +5463,7 @@
         <v>70</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C430" s="2">
         <v>157832.07900000003</v>
@@ -5477,7 +5474,7 @@
         <v>69</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C431" s="2">
         <v>18410.271000000004</v>
@@ -5488,7 +5485,7 @@
         <v>68</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C432" s="2">
         <v>7982429.2180000003</v>
@@ -5499,7 +5496,7 @@
         <v>67</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C433" s="2">
         <v>67658.584000000003</v>
@@ -5510,7 +5507,7 @@
         <v>66</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C434" s="2">
         <v>182155.05799999996</v>
@@ -5521,7 +5518,7 @@
         <v>65</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C435" s="2">
         <v>1656626.8289999999</v>
@@ -5532,7 +5529,7 @@
         <v>64</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C436" s="2">
         <v>1429326.9400000002</v>
@@ -5543,7 +5540,7 @@
         <v>63</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C437" s="2">
         <v>72234.036000000007</v>
@@ -5554,7 +5551,7 @@
         <v>62</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C438" s="2">
         <v>90074.18299999999</v>
@@ -5565,7 +5562,7 @@
         <v>61</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C439" s="2">
         <v>22166.338</v>
@@ -5576,7 +5573,7 @@
         <v>60</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C440" s="2">
         <v>1762.8869999999999</v>
@@ -5587,7 +5584,7 @@
         <v>59</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C441" s="2">
         <v>34105.648999999998</v>
@@ -5598,7 +5595,7 @@
         <v>58</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C442" s="2">
         <v>852172.89900000009</v>
@@ -5609,7 +5606,7 @@
         <v>57</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C443" s="2">
         <v>5065632.3899999997</v>
@@ -5620,7 +5617,7 @@
         <v>56</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C444" s="2">
         <v>14047.766</v>
@@ -5631,7 +5628,7 @@
         <v>55</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C445" s="2">
         <v>1287.105</v>
@@ -5642,7 +5639,7 @@
         <v>54</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C446" s="2">
         <v>44704.845999999998</v>
@@ -5653,7 +5650,7 @@
         <v>53</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C447" s="2">
         <v>3882826.8400000003</v>
@@ -5664,7 +5661,7 @@
         <v>52</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C448" s="2">
         <v>36467.148999999998</v>
@@ -5675,7 +5672,7 @@
         <v>51</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C449" s="2">
         <v>2767003.8080000007</v>
@@ -5686,7 +5683,7 @@
         <v>50</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C450" s="2">
         <v>109280925.933</v>
@@ -5697,7 +5694,7 @@
         <v>49</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C451" s="2">
         <v>8676072.2430000007</v>
@@ -5708,7 +5705,7 @@
         <v>48</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C452" s="2">
         <v>3241.1710000000003</v>
@@ -5719,7 +5716,7 @@
         <v>47</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C453" s="2">
         <v>87262.277999999991</v>
@@ -5730,7 +5727,7 @@
         <v>46</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C454" s="2">
         <v>1066746.0029999998</v>
@@ -5741,7 +5738,7 @@
         <v>45</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C455" s="2">
         <v>190144.07699999999</v>
@@ -5752,7 +5749,7 @@
         <v>44</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C456" s="2">
         <v>281822.277</v>
@@ -5763,7 +5760,7 @@
         <v>43</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C457" s="2">
         <v>8848257.4449999984</v>
@@ -5774,7 +5771,7 @@
         <v>42</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C458" s="2">
         <v>752777.1669999999</v>
@@ -5785,7 +5782,7 @@
         <v>41</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C459" s="2">
         <v>83804.424000000014</v>
@@ -5796,7 +5793,7 @@
         <v>40</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C460" s="2">
         <v>94188.887000000002</v>
@@ -5807,7 +5804,7 @@
         <v>39</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C461" s="2">
         <v>2382351.4169999999</v>
@@ -5818,7 +5815,7 @@
         <v>38</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C462" s="2">
         <v>1134297.8759999999</v>
@@ -5829,7 +5826,7 @@
         <v>37</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C463" s="2">
         <v>261591.74099999998</v>
@@ -5840,7 +5837,7 @@
         <v>36</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C464" s="2">
         <v>318135.61200000002</v>
@@ -5851,7 +5848,7 @@
         <v>35</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C465" s="2">
         <v>1314.502</v>
@@ -5862,7 +5859,7 @@
         <v>34</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C466" s="2">
         <v>40664.112999999998</v>
@@ -5873,7 +5870,7 @@
         <v>33</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C467" s="2">
         <v>45577.522000000004</v>
@@ -5884,7 +5881,7 @@
         <v>32</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C468" s="2">
         <v>20969.839000000004</v>
@@ -5895,7 +5892,7 @@
         <v>31</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C469" s="2">
         <v>26984.166999999998</v>
@@ -5906,7 +5903,7 @@
         <v>30</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C470" s="2">
         <v>3035322.1009999998</v>
@@ -5917,7 +5914,7 @@
         <v>29</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C471" s="2">
         <v>706924.33399999992</v>
@@ -5928,7 +5925,7 @@
         <v>28</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C472" s="2">
         <v>25943.584000000003</v>
@@ -5939,7 +5936,7 @@
         <v>27</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C473" s="2">
         <v>7370.6929999999993</v>
@@ -5950,7 +5947,7 @@
         <v>26</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C474" s="2">
         <v>45692.037000000004</v>
@@ -5961,7 +5958,7 @@
         <v>25</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C475" s="2">
         <v>1639959.061</v>
@@ -5972,7 +5969,7 @@
         <v>24</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C476" s="2">
         <v>14620.742000000002</v>
@@ -5983,7 +5980,7 @@
         <v>23</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C477" s="2">
         <v>90318.927000000011</v>
@@ -5994,7 +5991,7 @@
         <v>22</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C478" s="2">
         <v>477.77499999999998</v>
@@ -6005,7 +6002,7 @@
         <v>21</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C479" s="2">
         <v>203018.13200000001</v>
@@ -6016,7 +6013,7 @@
         <v>20</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C480" s="2">
         <v>165217.467</v>
@@ -6027,7 +6024,7 @@
         <v>19</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C481" s="2">
         <v>163016.47399999999</v>
@@ -6038,7 +6035,7 @@
         <v>18</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C482" s="2">
         <v>25330.757000000001</v>
@@ -6049,7 +6046,7 @@
         <v>17</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C483" s="2">
         <v>1177306.476</v>
@@ -6060,7 +6057,7 @@
         <v>16</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C484" s="2">
         <v>36420.175999999999</v>
@@ -6071,7 +6068,7 @@
         <v>15</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C485" s="2">
         <v>4.3870000000000005</v>
@@ -6082,7 +6079,7 @@
         <v>14</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C486" s="2">
         <v>87267.093000000008</v>
@@ -6093,7 +6090,7 @@
         <v>13</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C487" s="2">
         <v>20824.088</v>
@@ -6104,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C488" s="2">
         <v>40406.624000000003</v>
@@ -6115,7 +6112,7 @@
         <v>11</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C489" s="2">
         <v>69204.953999999998</v>
@@ -6126,7 +6123,7 @@
         <v>10</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C490" s="2">
         <v>6269.1680000000006</v>
@@ -6134,1930 +6131,1909 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C491" s="2" t="s">
-        <v>85</v>
+        <v>85</v>
+      </c>
+      <c r="C491" s="2">
+        <v>15508.204</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C492" s="2">
-        <v>15508.204</v>
+        <v>641956.92599999998</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C493" s="2">
-        <v>641956.92599999998</v>
+        <v>742763.63300000003</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C494" s="2">
-        <v>742763.63300000003</v>
+        <v>36984.423999999999</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C495" s="2">
-        <v>36984.423999999999</v>
+        <v>480149.75199999998</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C496" s="2">
-        <v>480149.75199999998</v>
+        <v>118182.22700000001</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C497" s="2">
-        <v>118182.22700000001</v>
+        <v>27624316.829</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C498" s="2">
-        <v>27624316.829</v>
+        <v>6024.4130000000005</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C499" s="2">
-        <v>6024.4130000000005</v>
+        <v>2062408.9010000003</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C500" s="2">
-        <v>2062408.9010000003</v>
+        <v>47770.531000000003</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C501" s="2">
-        <v>47770.531000000003</v>
+        <v>79265.403000000006</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C502" s="2">
-        <v>79265.403000000006</v>
+        <v>93975.896999999997</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C503" s="2">
-        <v>93975.896999999997</v>
+        <v>48447.608</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C504" s="2">
-        <v>48447.608</v>
+        <v>13410354.670000002</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C505" s="2">
-        <v>13410354.670000002</v>
+        <v>993249.21900000004</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C506" s="2">
-        <v>993249.21900000004</v>
+        <v>23336.446</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C507" s="2">
-        <v>23336.446</v>
+        <v>245138.54300000001</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C508" s="2">
-        <v>245138.54300000001</v>
+        <v>398220.69099999999</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C509" s="2">
-        <v>398220.69099999999</v>
+        <v>119226.22099999999</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C510" s="2">
-        <v>119226.22099999999</v>
+        <v>988.17500000000007</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C511" s="2">
-        <v>988.17500000000007</v>
+        <v>3186.2590000000005</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C512" s="2">
-        <v>3186.2590000000005</v>
+        <v>173378.663</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C513" s="2">
-        <v>173378.663</v>
+        <v>36547.94000000001</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C514" s="2">
-        <v>36547.94000000001</v>
+        <v>8892030.9189999998</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C515" s="2">
-        <v>8892030.9189999998</v>
+        <v>85085.578999999998</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C516" s="2">
-        <v>85085.578999999998</v>
+        <v>143688.77799999999</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C517" s="2">
-        <v>143688.77799999999</v>
+        <v>514916.27500000002</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C518" s="2">
-        <v>514916.27500000002</v>
+        <v>1922731.5699999998</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C519" s="2">
-        <v>1922731.5699999998</v>
+        <v>71021.667999999991</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C520" s="2">
-        <v>71021.667999999991</v>
+        <v>66722</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C521" s="2">
-        <v>66722</v>
+        <v>22687.985000000001</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C522" s="2">
-        <v>22687.985000000001</v>
+        <v>4722.5379999999996</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C523" s="2">
-        <v>4722.5379999999996</v>
+        <v>43094.628000000004</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C524" s="2">
-        <v>43094.628000000004</v>
+        <v>890272.0610000001</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C525" s="2">
-        <v>890272.0610000001</v>
+        <v>4874475.7719999989</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C526" s="2">
-        <v>4874475.7719999989</v>
+        <v>21378.893</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C527" s="2">
-        <v>21378.893</v>
+        <v>4829.8</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C528" s="2">
-        <v>4829.8</v>
+        <v>38000.719000000005</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C529" s="2">
-        <v>38000.719000000005</v>
+        <v>4142468.6869999999</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C530" s="2">
-        <v>4142468.6869999999</v>
+        <v>46601.093999999997</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C531" s="2">
-        <v>46601.093999999997</v>
+        <v>2293597.6549999998</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C532" s="2">
-        <v>2293597.6549999998</v>
+        <v>125175604.235</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C533" s="2">
-        <v>125175604.235</v>
+        <v>10585578.798</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C534" s="2">
-        <v>10585578.798</v>
+        <v>10350.470000000001</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C535" s="2">
-        <v>10350.470000000001</v>
+        <v>238641.42000000004</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C536" s="2">
-        <v>238641.42000000004</v>
+        <v>1340390.4440000001</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C537" s="2">
-        <v>1340390.4440000001</v>
+        <v>149754.32800000001</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C538" s="2">
-        <v>149754.32800000001</v>
+        <v>326462.49700000003</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C539" s="2">
-        <v>326462.49700000003</v>
+        <v>14508971.949000001</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C540" s="2">
-        <v>14508971.949000001</v>
+        <v>828157.56900000002</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C541" s="2">
-        <v>828157.56900000002</v>
+        <v>104410.40300000001</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C542" s="2">
-        <v>104410.40300000001</v>
+        <v>102412.13699999999</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C543" s="2">
-        <v>102412.13699999999</v>
+        <v>2750865.3739999998</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C544" s="2">
-        <v>2750865.3739999998</v>
+        <v>1126244.7889999999</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C545" s="2">
-        <v>1126244.7889999999</v>
+        <v>151829.361</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C546" s="2">
-        <v>151829.361</v>
+        <v>248252.12599999996</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C547" s="2">
-        <v>248252.12599999996</v>
+        <v>1371.0030000000002</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C548" s="2">
-        <v>1371.0030000000002</v>
+        <v>47941.995999999999</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C549" s="2">
-        <v>47941.995999999999</v>
+        <v>36839.06</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C550" s="2">
-        <v>36839.06</v>
+        <v>35981.066000000006</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C551" s="2">
-        <v>35981.066000000006</v>
+        <v>16287.203000000001</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C552" s="2">
-        <v>16287.203000000001</v>
+        <v>3244738.6609999998</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C553" s="2">
-        <v>3244738.6609999998</v>
+        <v>828303.87399999984</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C554" s="2">
-        <v>828303.87399999984</v>
+        <v>40564.527999999998</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C555" s="2">
-        <v>40564.527999999998</v>
+        <v>10039.686</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C556" s="2">
-        <v>10039.686</v>
+        <v>50958.131999999998</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C557" s="2">
-        <v>50958.131999999998</v>
+        <v>1707201.6499999997</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C558" s="2">
-        <v>1707201.6499999997</v>
+        <v>17604.945</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B559" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C559" s="2">
-        <v>17604.945</v>
+        <v>87873.156000000017</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C560" s="2">
-        <v>87873.156000000017</v>
+        <v>93.317999999999984</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B561" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C561" s="2">
-        <v>93.317999999999984</v>
+        <v>148534.23200000002</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C562" s="2">
-        <v>148534.23200000002</v>
+        <v>208472.95</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C563" s="2">
-        <v>208472.95</v>
+        <v>83146.651000000013</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C564" s="2">
-        <v>83146.651000000013</v>
+        <v>21883.606999999996</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C565" s="2">
-        <v>21883.606999999996</v>
+        <v>1350582.2340000002</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C566" s="2">
-        <v>1350582.2340000002</v>
+        <v>73734.082999999999</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B567" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C567" s="2">
-        <v>73734.082999999999</v>
+        <v>225.483</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C568" s="2">
-        <v>225.483</v>
+        <v>89355.706000000006</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C569" s="2">
-        <v>89355.706000000006</v>
+        <v>11924.496999999999</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C570" s="2">
-        <v>11924.496999999999</v>
+        <v>68855.85000000002</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C571" s="2">
-        <v>68855.85000000002</v>
+        <v>46718.767</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C572" s="2">
-        <v>46718.767</v>
+        <v>12881.053</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B573" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C573" s="2">
-        <v>12881.053</v>
+        <v>21378.205000000002</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C574" s="2" t="s">
-        <v>85</v>
+      <c r="C574" s="2">
+        <v>573197.93400000001</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C575" s="2">
-        <v>21378.205000000002</v>
+        <v>733437.88599999994</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B576" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C576" s="2">
-        <v>573197.93400000001</v>
+        <v>65090.517000000007</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C577" s="2">
-        <v>733437.88599999994</v>
+        <v>709090.64399999985</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B578" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C578" s="2">
-        <v>65090.517000000007</v>
+        <v>82214.703000000009</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C579" s="2">
-        <v>709090.64399999985</v>
+        <v>21086861.864</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C580" s="2">
-        <v>82214.703000000009</v>
+        <v>177349.81300000002</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="C581" s="2">
-        <v>21086861.864</v>
+        <v>1979630.8650000005</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="C582" s="2">
-        <v>177349.81300000002</v>
+        <v>86507.114000000001</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C583" s="2">
-        <v>1979630.8650000005</v>
+        <v>103278.69599999998</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C584" s="2">
-        <v>86507.114000000001</v>
+        <v>191468.837</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C585" s="2">
-        <v>103278.69599999998</v>
+        <v>40064.545999999995</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C586" s="2">
-        <v>191468.837</v>
+        <v>12178015.233999999</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C587" s="2">
-        <v>40064.545999999995</v>
+        <v>1285504.9669999999</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C588" s="2">
-        <v>12178015.233999999</v>
+        <v>36298.097999999998</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C589" s="2">
-        <v>1285504.9669999999</v>
+        <v>241433.80899999998</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C590" s="2">
-        <v>36298.097999999998</v>
+        <v>402148.10200000001</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C591" s="2">
-        <v>241433.80899999998</v>
+        <v>122157.512</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C592" s="2">
-        <v>402148.10200000001</v>
+        <v>16351.287</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C593" s="2">
-        <v>122157.512</v>
+        <v>7936.695999999999</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B594" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C594" s="2">
-        <v>16351.287</v>
+        <v>191322.00099999999</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B595" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C595" s="2">
-        <v>7936.695999999999</v>
+        <v>45990.859000000004</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B596" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C596" s="2">
-        <v>191322.00099999999</v>
+        <v>9524265.0610000007</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B597" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C597" s="2">
-        <v>45990.859000000004</v>
+        <v>87015.638000000006</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B598" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C598" s="2">
-        <v>9524265.0610000007</v>
+        <v>139882.34399999998</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C599" s="2">
-        <v>87015.638000000006</v>
+        <v>220070.90899999999</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C600" s="2">
-        <v>139882.34399999998</v>
+        <v>1910261.3389999997</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B601" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C601" s="2">
-        <v>220070.90899999999</v>
+        <v>73880.096000000005</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B602" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C602" s="2">
-        <v>1910261.3389999997</v>
+        <v>95579.733999999997</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C603" s="2">
-        <v>73880.096000000005</v>
+        <v>50803.512999999999</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B604" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C604" s="2">
-        <v>95579.733999999997</v>
+        <v>8410.3220000000001</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C605" s="2">
-        <v>50803.512999999999</v>
+        <v>38237.279999999999</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B606" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C606" s="2">
-        <v>8410.3220000000001</v>
+        <v>779450.52299999993</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B607" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C607" s="2">
-        <v>38237.279999999999</v>
+        <v>5068823</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B608" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C608" s="2">
-        <v>779450.52299999993</v>
+        <v>16436.094000000001</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B609" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C609" s="2">
-        <v>5068823</v>
+        <v>137.51300000000001</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B610" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C610" s="2">
-        <v>16436.094000000001</v>
+        <v>48591.462</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B611" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C611" s="2">
-        <v>137.51300000000001</v>
+        <v>4254361.0669999998</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B612" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C612" s="2">
-        <v>48591.462</v>
+        <v>85254.484999999986</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B613" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C613" s="2">
-        <v>4254361.0669999998</v>
+        <v>2715793.8909999998</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B614" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C614" s="2">
-        <v>85254.484999999986</v>
+        <v>135791868.99900001</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B615" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C615" s="2">
-        <v>2715793.8909999998</v>
+        <v>10912750.986</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B616" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C616" s="2">
-        <v>135791868.99900001</v>
+        <v>4272.6390000000001</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B617" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C617" s="2">
-        <v>10912750.986</v>
+        <v>189837.226</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B618" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C618" s="2">
-        <v>4272.6390000000001</v>
+        <v>1784385.5660000001</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B619" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C619" s="2">
-        <v>189837.226</v>
+        <v>132564.924</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B620" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C620" s="2">
-        <v>1784385.5660000001</v>
+        <v>279245.47100000002</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B621" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C621" s="2">
-        <v>132564.924</v>
+        <v>22006950.900000002</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B622" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C622" s="2">
-        <v>279245.47100000002</v>
+        <v>970334.03200000001</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B623" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C623" s="2">
-        <v>22006950.900000002</v>
+        <v>148381.22500000001</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B624" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C624" s="2">
-        <v>970334.03200000001</v>
+        <v>125891.68100000001</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B625" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C625" s="2">
-        <v>148381.22500000001</v>
+        <v>3079661.3879999998</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B626" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C626" s="2">
-        <v>125891.68100000001</v>
+        <v>1320501.828</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B627" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C627" s="2">
-        <v>3079661.3879999998</v>
+        <v>153438.383</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B628" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C628" s="2">
-        <v>1320501.828</v>
+        <v>267090.13100000005</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B629" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C629" s="2">
-        <v>153438.383</v>
+        <v>1086.0119999999999</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B630" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C630" s="2">
-        <v>267090.13100000005</v>
+        <v>33762.223999999995</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B631" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C631" s="2">
-        <v>1086.0119999999999</v>
+        <v>28424.803999999996</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B632" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C632" s="2">
-        <v>33762.223999999995</v>
+        <v>62391.245999999999</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B633" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C633" s="2">
-        <v>28424.803999999996</v>
+        <v>10396.814999999999</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B634" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C634" s="2">
-        <v>62391.245999999999</v>
+        <v>3185522.4029999995</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B635" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C635" s="2">
-        <v>10396.814999999999</v>
+        <v>764740.18199999991</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B636" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C636" s="2">
-        <v>3185522.4029999995</v>
+        <v>11816.579000000002</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B637" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C637" s="2">
-        <v>764740.18199999991</v>
+        <v>5122.6779999999999</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B638" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C638" s="2">
-        <v>11816.579000000002</v>
+        <v>50254.070000000007</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B639" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C639" s="2">
-        <v>5122.6779999999999</v>
+        <v>1559286.3350000002</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B640" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C640" s="2">
-        <v>50254.070000000007</v>
+        <v>19318.466000000004</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B641" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C641" s="2">
-        <v>1559286.3350000002</v>
+        <v>68565.776000000013</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B642" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C642" s="2">
-        <v>19318.466000000004</v>
+        <v>2662.2229999999995</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B643" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C643" s="2">
-        <v>68565.776000000013</v>
+        <v>162498.19</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B644" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C644" s="2">
-        <v>2662.2229999999995</v>
+        <v>242087.51900000003</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B645" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C645" s="2">
-        <v>162498.19</v>
+        <v>106321.128</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B646" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C646" s="2">
-        <v>242087.51900000003</v>
+        <v>28452.644</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B647" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C647" s="2">
-        <v>106321.128</v>
+        <v>1306689.0829999999</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B648" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C648" s="2">
-        <v>28452.644</v>
+        <v>49271.173000000003</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B649" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C649" s="2">
-        <v>1306689.0829999999</v>
+        <v>583.15</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B650" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C650" s="2">
-        <v>49271.173000000003</v>
+        <v>114115.01200000002</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B651" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C651" s="2">
-        <v>583.15</v>
+        <v>5958.1239999999989</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B652" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C652" s="2">
-        <v>114115.01200000002</v>
+        <v>147832.383</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B653" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C653" s="2">
-        <v>5958.1239999999989</v>
+        <v>83195.302999999985</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B654" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C654" s="2">
-        <v>147832.383</v>
+        <v>10250.073999999999</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B655" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C655" s="2">
-        <v>83195.302999999985</v>
+        <v>96.346999999999994</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B656" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C656" s="2">
-        <v>10250.073999999999</v>
+        <v>30183.699000000004</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B657" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C657" s="2">
-        <v>96.346999999999994</v>
+        <v>610611.56700000016</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B658" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C658" s="2">
-        <v>30183.699000000004</v>
+        <v>683139.89299999992</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B659" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C659" s="2">
-        <v>610611.56700000016</v>
+        <v>41244.886999999995</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B660" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C660" s="2">
-        <v>683139.89299999992</v>
+        <v>623174.73399999994</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B661" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C661" s="2">
-        <v>41244.886999999995</v>
+        <v>80685.542000000016</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B662" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C662" s="2">
-        <v>623174.73399999994</v>
+        <v>9262206.284</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B663" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C663" s="2">
-        <v>80685.542000000016</v>
-      </c>
-    </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A664" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B664" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C664" s="2">
-        <v>9262206.284</v>
-      </c>
-    </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A665" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B665" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C665" s="2">
         <v>110643.09000000001</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C663" xr:uid="{0FD6110B-FCB7-DE49-887F-BCC6AE31C17D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>